--- a/biology/Médecine/Laurent_Jean_Baptiste_Bérenger-Féraud/Laurent_Jean_Baptiste_Bérenger-Féraud.xlsx
+++ b/biology/Médecine/Laurent_Jean_Baptiste_Bérenger-Féraud/Laurent_Jean_Baptiste_Bérenger-Féraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Jean Baptiste Bérenger-Féraud (Saint-Paul-du-Var, 9 mai 1832-Toulon, 21 décembre 1900), est un médecin-chirurgien de marine, ethnologue et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est admis à l'école de médecine navale de Toulon en 1850 et interne de l'hôpital civil de Toulon en mars 1851. Il est nommé chirurgien auxiliaire de 3e classe (octobre 1852), il sert en Méditerranée sur la Vedette, l' Utile et l' Eldorado à la division des côtes occidentales d'Afrique puis prend part à la campagne de Crimée sur l' Orénoque, l' Uranie et le Suffren (1854-1855). De nouveau en Méditerranée sur la Mégère (1856) puis l' Isly (1857-1858), il participe aux opérations liées à la guerre d'Italie sur l' Ariège et le Gomer.
 En février 1860, il devient docteur en médecine (Montpellier). Au service du prince Jérôme, il embarque alors à ses côtés sur le Jérôme-Bonaparte. En juin 1863, il passe médecin de 1re classe, devient docteur en chirurgie (Paris, 1864) puis, en août 1868, médecin principal et participe en 1870-1871 au siège de Paris comme médecin de la flottille de la Seine.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier (15 août 1862), Officier (28 janvier 1877) puis Commandeur de la Légion d'honneur (9 juillet 1888)[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier (15 août 1862), Officier (28 janvier 1877) puis Commandeur de la Légion d'honneur (9 juillet 1888).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On lui doit de nombreux ouvrages médicaux spécialisés sur les fractures et les maladies tropicales ainsi que des travaux d'ethnologie et de folklore.
-Médecine
-De quelques mesures prophylactiques à opposer sur les navires de l'état à l'encombrement, cause essentielle du typhus, 1860
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui doit de nombreux ouvrages médicaux spécialisés sur les fractures et les maladies tropicales ainsi que des travaux d'ethnologie et de folklore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De quelques mesures prophylactiques à opposer sur les navires de l'état à l'encombrement, cause essentielle du typhus, 1860
 Des fractures en V au point de vue de leur gravité et de leur traitement, 1864
 Étude sur l'action antiblennorrhagique de la digitale, 1867
 De la Ligature des os dans les fractures compliquées, 1868
@@ -594,23 +647,159 @@
 Traité théorique et clinique de la dysenterie, diarrhée et dysenterie aiguës et chroniques, 1883
 Traité théorique &amp; clinique de la fièvre jaune, 1890
 Cycle biologique des taenias de l'homme, 1892
-Notice sur les services et travaux scientifiques de M. Bérenger-Féraud, Paris, 1875 [lire en ligne]
-Ethnologie
-De la Fièvre bilieuse mélanurique des pays chauds comparée avec la fièvre jaune, étude clinique faite au Sénégal, 1874
+Notice sur les services et travaux scientifiques de M. Bérenger-Féraud, Paris, 1875 [lire en ligne]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ethnologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>De la Fièvre bilieuse mélanurique des pays chauds comparée avec la fièvre jaune, étude clinique faite au Sénégal, 1874
 Les Peuplades de la Sénégambie. Histoire, ethnographie, mœurs et coutumes, etc, 1879
-Étude sur les populations de la Casamance (côte ouest de l'Afrique intertropicale), 1890
-Folklore
-La Race provençale, caractères anthropologiques, mœurs, coutumes, aptitudes, etc., etc., de ses peuplades d'origine, 1883
+Étude sur les populations de la Casamance (côte ouest de l'Afrique intertropicale), 1890</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Folklore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Race provençale, caractères anthropologiques, mœurs, coutumes, aptitudes, etc., etc., de ses peuplades d'origine, 1883
 Réminiscences populaires de la Provence, 1885 [lire en ligne]
 Recueil de contes populaires de la Sénégambie, 1885
 Contes populaires des Provençaux de l'Antiquité et du Moyen âge, 1887
 Les Légendes de la Provence, 1888
 Superstitions et survivances étudiées au point de vue de leur origine et de leurs transformations, 5 vol., 1896
-Les Provençaux à travers les âges, 1900
-Biographie
-Le Baron Hippolyte Larrey, Fayard, 1899
-Histoire
-Saint-Mandrier près Toulon. Contribution à l'Histoire de la localité et de l'hôpital maritime, Ernest Leroux éditeur, Paris, 1881</t>
+Les Provençaux à travers les âges, 1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Baron Hippolyte Larrey, Fayard, 1899</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Laurent_Jean_Baptiste_Bérenger-Féraud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Jean_Baptiste_B%C3%A9renger-F%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Saint-Mandrier près Toulon. Contribution à l'Histoire de la localité et de l'hôpital maritime, Ernest Leroux éditeur, Paris, 1881</t>
         </is>
       </c>
     </row>
